--- a/hate_crime_2021/miserableData.xlsx
+++ b/hate_crime_2021/miserableData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvin\Documents\hateCrimeProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvin\Documents\hateCrimeProject\hate_crime_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEED852F-DB7A-4AB6-961F-E27AD3E5CCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D77BE50-E138-44D1-8639-B570512CBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Anti LGBTQ Bills" sheetId="15" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="396">
   <si>
     <t>State</t>
   </si>
@@ -1313,16 +1313,25 @@
   </si>
   <si>
     <t>Read for the first time and referred to committee 3/24/21</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1348,18 +1357,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1371,7 +1398,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1409,11 +1436,12 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{07ED5A65-38E0-4F6C-88EE-CE0C0DC2B63F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="6" unboundColumnsRight="1">
+    <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1421,11 +1449,12 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{0835F8C9-353B-45B1-A880-CD24D1847ABE}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="7" unboundColumnsRight="1">
+    <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1433,11 +1462,12 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="20" xr16:uid="{F6BC37A2-74AC-46D6-9A6A-1F57F5261972}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="6" unboundColumnsRight="1">
+    <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1445,59 +1475,66 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="18" xr16:uid="{DE75E662-E17B-45BE-BF29-EDA0A560B0E8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="6" unboundColumnsRight="1">
+    <queryTableFields count="4">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
+      <queryTableField id="4" dataBound="0" tableColumnId="4"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}" name="a__________Prohibiting_healthcare_for_transgender_youth" displayName="a__________Prohibiting_healthcare_for_transgender_youth" ref="A1:C122" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C122" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CCE40006-08C5-455F-8DA0-68DBDBDA71C8}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{12F8E506-5ABC-4DAE-8DC8-0C7595662948}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}" name="a__________Prohibiting_healthcare_for_transgender_youth" displayName="a__________Prohibiting_healthcare_for_transgender_youth" ref="A1:D122" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D122" xr:uid="{41C186C5-5C4D-4689-934E-A837931ECE32}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CCE40006-08C5-455F-8DA0-68DBDBDA71C8}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{12F8E506-5ABC-4DAE-8DC8-0C7595662948}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{5F1E18FE-CE08-4BA2-8CF7-A0E98590A654}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{F60CA87F-D1F0-4E3A-963C-4E0124588D3C}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F48F93A2-E90A-4031-A502-DBC196E254DA}" name="a____Religious_Freedom_Restoration_Acts__RFRAs" displayName="a____Religious_Freedom_Restoration_Acts__RFRAs" ref="A1:C39" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C39" xr:uid="{F48F93A2-E90A-4031-A502-DBC196E254DA}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EA1AF20A-5CD6-48D7-BE37-2647D3B13748}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{360853BE-AEE0-4B63-BC63-C99A80B6AEB5}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{05BEA230-E3D0-48AE-BE4E-A7BF26FCFF1F}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F48F93A2-E90A-4031-A502-DBC196E254DA}" name="a____Religious_Freedom_Restoration_Acts__RFRAs" displayName="a____Religious_Freedom_Restoration_Acts__RFRAs" ref="A1:D39" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D39" xr:uid="{F48F93A2-E90A-4031-A502-DBC196E254DA}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EA1AF20A-5CD6-48D7-BE37-2647D3B13748}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{360853BE-AEE0-4B63-BC63-C99A80B6AEB5}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{05BEA230-E3D0-48AE-BE4E-A7BF26FCFF1F}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{62EF2164-7D8B-415B-9A09-13E50E4384D1}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}" name="Other_Anti_LGBTQ_Bills__2" displayName="Other_Anti_LGBTQ_Bills__2" ref="A1:C13" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C13" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3383346D-3BFE-443C-8365-0E782E7E0C67}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{85B958ED-E918-413E-803A-8F423B00C9F0}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}" name="Other_Anti_LGBTQ_Bills__2" displayName="Other_Anti_LGBTQ_Bills__2" ref="A1:D13" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3383346D-3BFE-443C-8365-0E782E7E0C67}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{85B958ED-E918-413E-803A-8F423B00C9F0}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{64C201D8-81A3-4623-9901-BE1D7BF2388A}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FFF29EBC-E7E4-40D2-82D9-21AEB9416F2E}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="2">
+      <calculatedColumnFormula>EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}" name="LGBTQ_Equality_Bills__522" displayName="LGBTQ_Equality_Bills__522" ref="A1:C39" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C39" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BE622ACF-A67A-4607-B36A-0CA21049E099}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{147119ED-C419-4B04-B42B-5496902E990F}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{458A07B4-90A9-4AFC-8BFB-A0A95BDD320D}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}" name="LGBTQ_Equality_Bills__522" displayName="LGBTQ_Equality_Bills__522" ref="A1:D39" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D39" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{BE622ACF-A67A-4607-B36A-0CA21049E099}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{147119ED-C419-4B04-B42B-5496902E990F}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{458A07B4-90A9-4AFC-8BFB-A0A95BDD320D}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D9EEB34A-937D-46C9-A618-90F9491DADFA}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1800,20 +1837,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C823D797-831C-4828-9572-7CCBE044D14D}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1823,8 +1861,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1834,8 +1875,11 @@
       <c r="C2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1889,11 @@
       <c r="C3" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>44572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>191</v>
       </c>
@@ -1856,8 +1903,11 @@
       <c r="C4" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1867,8 +1917,11 @@
       <c r="C5" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1878,8 +1931,11 @@
       <c r="C6" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>44299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1889,8 +1945,11 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1900,8 +1959,11 @@
       <c r="C8" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1911,8 +1973,11 @@
       <c r="C9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1922,8 +1987,11 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1933,8 +2001,11 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1944,8 +2015,11 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1955,8 +2029,11 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1966,8 +2043,11 @@
       <c r="C14" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1977,8 +2057,11 @@
       <c r="C15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1988,8 +2071,11 @@
       <c r="C16" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2085,11 @@
       <c r="C17" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -2010,8 +2099,11 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2021,8 +2113,11 @@
       <c r="C19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2032,8 +2127,11 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2043,8 +2141,11 @@
       <c r="C21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2155,11 @@
       <c r="C22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2065,8 +2169,11 @@
       <c r="C23" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2076,8 +2183,11 @@
       <c r="C24" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2087,8 +2197,11 @@
       <c r="C25" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2098,8 +2211,11 @@
       <c r="C26" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2109,8 +2225,11 @@
       <c r="C27" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2120,8 +2239,11 @@
       <c r="C28" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -2131,8 +2253,11 @@
       <c r="C29" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>44328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2142,8 +2267,11 @@
       <c r="C30" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2153,8 +2281,11 @@
       <c r="C31" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2164,8 +2295,11 @@
       <c r="C32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="3">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2175,8 +2309,11 @@
       <c r="C33" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2186,8 +2323,11 @@
       <c r="C34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2197,8 +2337,11 @@
       <c r="C35" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="3">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2208,8 +2351,11 @@
       <c r="C36" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <v>44330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2219,8 +2365,11 @@
       <c r="C37" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="3">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2230,8 +2379,11 @@
       <c r="C38" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
+        <v>44333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -2241,8 +2393,11 @@
       <c r="C39" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2408,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2263,8 +2418,11 @@
       <c r="C41" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="3">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2274,8 +2432,11 @@
       <c r="C42" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="3">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2285,8 +2446,11 @@
       <c r="C43" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="3">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2296,8 +2460,11 @@
       <c r="C44" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="3">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -2307,8 +2474,11 @@
       <c r="C45" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="3">
+        <v>44221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -2318,8 +2488,11 @@
       <c r="C46" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="3">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2329,8 +2502,11 @@
       <c r="C47" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="3">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2340,8 +2516,11 @@
       <c r="C48" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="3">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2351,8 +2530,11 @@
       <c r="C49" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="3">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2362,8 +2544,11 @@
       <c r="C50" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="3">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2373,8 +2558,11 @@
       <c r="C51" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="3">
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2384,8 +2572,11 @@
       <c r="C52" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="3">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2395,8 +2586,11 @@
       <c r="C53" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="3">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2406,8 +2600,11 @@
       <c r="C54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="3">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2417,8 +2614,11 @@
       <c r="C55" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="3">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -2428,8 +2628,11 @@
       <c r="C56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="3">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2439,8 +2642,11 @@
       <c r="C57" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="3">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -2450,8 +2656,11 @@
       <c r="C58" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="3">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -2461,8 +2670,11 @@
       <c r="C59" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="3">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -2472,8 +2684,11 @@
       <c r="C60" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="3">
+        <v>44398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2698,11 @@
       <c r="C61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="3">
+        <v>44396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2494,8 +2712,11 @@
       <c r="C62" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="3">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2505,8 +2726,11 @@
       <c r="C63" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="3">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2516,8 +2740,11 @@
       <c r="C64" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="3">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2527,8 +2754,11 @@
       <c r="C65" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="3">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -2538,8 +2768,11 @@
       <c r="C66" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="3">
+        <v>44245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -2549,8 +2782,11 @@
       <c r="C67" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="3">
+        <v>44245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -2560,8 +2796,11 @@
       <c r="C68" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="3">
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -2571,8 +2810,11 @@
       <c r="C69" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="3">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -2582,8 +2824,11 @@
       <c r="C70" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="3">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -2593,8 +2838,11 @@
       <c r="C71" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="3">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>29</v>
       </c>
@@ -2604,8 +2852,11 @@
       <c r="C72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="3">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -2615,8 +2866,11 @@
       <c r="C73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="3">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2626,8 +2880,11 @@
       <c r="C74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="3">
+        <v>44483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>76</v>
       </c>
@@ -2637,8 +2894,11 @@
       <c r="C75" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="3">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2648,8 +2908,11 @@
       <c r="C76" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="3">
+        <v>44245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>35</v>
       </c>
@@ -2659,8 +2922,11 @@
       <c r="C77" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="3">
+        <v>44231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -2670,8 +2936,11 @@
       <c r="C78" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="3">
+        <v>44272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>35</v>
       </c>
@@ -2681,8 +2950,11 @@
       <c r="C79" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="3">
+        <v>44371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -2692,8 +2964,11 @@
       <c r="C80" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="3">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -2703,8 +2978,11 @@
       <c r="C81" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="3">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2714,8 +2992,11 @@
       <c r="C82" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="3">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -2725,8 +3006,11 @@
       <c r="C83" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="3">
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -2736,8 +3020,11 @@
       <c r="C84" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="3">
+        <v>44517</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2747,8 +3034,11 @@
       <c r="C85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="3">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -2758,8 +3048,11 @@
       <c r="C86" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="3">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -2769,8 +3062,11 @@
       <c r="C87" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="3">
+        <v>44281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>41</v>
       </c>
@@ -2780,8 +3076,11 @@
       <c r="C88" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="3">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -2791,8 +3090,11 @@
       <c r="C89" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="3">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>41</v>
       </c>
@@ -2802,8 +3104,11 @@
       <c r="C90" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="3">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -2813,8 +3118,11 @@
       <c r="C91" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="3">
+        <v>44277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>41</v>
       </c>
@@ -2824,8 +3132,11 @@
       <c r="C92" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="3">
+        <v>44306</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>41</v>
       </c>
@@ -2835,8 +3146,11 @@
       <c r="C93" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="3">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -2846,8 +3160,11 @@
       <c r="C94" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="3">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -2857,8 +3174,11 @@
       <c r="C95" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="3">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>41</v>
       </c>
@@ -2868,8 +3188,11 @@
       <c r="C96" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="3">
+        <v>44494</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>42</v>
       </c>
@@ -2879,8 +3202,11 @@
       <c r="C97" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="3">
+        <v>44260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>42</v>
       </c>
@@ -2890,8 +3216,11 @@
       <c r="C98" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="3">
+        <v>44240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>88</v>
       </c>
@@ -2901,8 +3230,11 @@
       <c r="C99" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="3">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>88</v>
       </c>
@@ -2912,8 +3244,11 @@
       <c r="C100" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="3">
+        <v>44363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>88</v>
       </c>
@@ -2923,8 +3258,11 @@
       <c r="C101" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="3">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>88</v>
       </c>
@@ -2934,8 +3272,11 @@
       <c r="C102" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="3">
+        <v>44342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -2945,8 +3286,11 @@
       <c r="C103" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="3">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>45</v>
       </c>
@@ -2956,8 +3300,11 @@
       <c r="C104" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="3">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -2967,8 +3314,11 @@
       <c r="C105" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="3">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -2978,8 +3328,11 @@
       <c r="C106" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="3">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>45</v>
       </c>
@@ -2989,8 +3342,11 @@
       <c r="C107" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="3">
+        <v>44245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>29</v>
       </c>
@@ -3000,8 +3356,11 @@
       <c r="C108" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="3">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -3011,8 +3370,11 @@
       <c r="C109" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="3">
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -3022,8 +3384,11 @@
       <c r="C110" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="3">
+        <v>44537</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -3033,8 +3398,11 @@
       <c r="C111" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="3">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -3044,8 +3412,11 @@
       <c r="C112" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="3">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -3055,8 +3426,11 @@
       <c r="C113" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="3">
+        <v>44599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -3066,8 +3440,11 @@
       <c r="C114" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="3">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -3077,8 +3454,11 @@
       <c r="C115" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="3">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -3088,8 +3468,11 @@
       <c r="C116" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="3">
+        <v>44230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -3099,8 +3482,11 @@
       <c r="C117" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="3">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>12</v>
       </c>
@@ -3110,8 +3496,11 @@
       <c r="C118" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="3">
+        <v>44223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>12</v>
       </c>
@@ -3121,8 +3510,11 @@
       <c r="C119" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="3">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>21</v>
       </c>
@@ -3132,8 +3524,11 @@
       <c r="C120" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="3">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>70</v>
       </c>
@@ -3143,8 +3538,11 @@
       <c r="C121" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="3">
+        <v>44217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>39</v>
       </c>
@@ -3154,8 +3552,12 @@
       <c r="C122" t="s">
         <v>108</v>
       </c>
+      <c r="D122" s="3">
+        <v>44517</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3165,20 +3567,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B2B72-99ED-4BED-84A3-4A14F8520817}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="123.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3188,8 +3589,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3199,8 +3603,11 @@
       <c r="C2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="4">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3210,8 +3617,11 @@
       <c r="C3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="4">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -3221,8 +3631,11 @@
       <c r="C4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="4">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3232,8 +3645,11 @@
       <c r="C5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="4">
+        <v>44257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3243,8 +3659,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="4">
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3254,8 +3673,11 @@
       <c r="C7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="4">
+        <v>44308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -3265,8 +3687,11 @@
       <c r="C8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="4">
+        <v>44341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -3276,8 +3701,11 @@
       <c r="C9" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="4">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -3287,8 +3715,11 @@
       <c r="C10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="4">
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>157</v>
       </c>
@@ -3298,8 +3729,11 @@
       <c r="C11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>44263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3309,8 +3743,11 @@
       <c r="C12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -3320,8 +3757,11 @@
       <c r="C13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="4">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3331,8 +3771,11 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -3342,8 +3785,11 @@
       <c r="C15" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="4">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -3353,8 +3799,11 @@
       <c r="C16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -3364,8 +3813,11 @@
       <c r="C17" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -3375,8 +3827,11 @@
       <c r="C18" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -3386,8 +3841,11 @@
       <c r="C19" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -3397,8 +3855,11 @@
       <c r="C20" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3408,8 +3869,11 @@
       <c r="C21" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3419,8 +3883,11 @@
       <c r="C22" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3430,8 +3897,11 @@
       <c r="C23" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -3441,8 +3911,11 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3452,8 +3925,11 @@
       <c r="C25" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -3463,8 +3939,11 @@
       <c r="C26" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3474,8 +3953,11 @@
       <c r="C27" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>85</v>
       </c>
@@ -3485,8 +3967,11 @@
       <c r="C28" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>44251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3496,8 +3981,11 @@
       <c r="C29" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3507,8 +3995,11 @@
       <c r="C30" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -3518,8 +4009,11 @@
       <c r="C31" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="4">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3529,8 +4023,11 @@
       <c r="C32" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="4">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -3540,8 +4037,11 @@
       <c r="C33" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="4">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -3551,8 +4051,11 @@
       <c r="C34" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="4">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3562,8 +4065,11 @@
       <c r="C35" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="4">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -3573,8 +4079,11 @@
       <c r="C36" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="4">
+        <v>44231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -3584,8 +4093,11 @@
       <c r="C37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="4">
+        <v>44218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>132</v>
       </c>
@@ -3595,8 +4107,11 @@
       <c r="C38" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="4">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -3606,8 +4121,12 @@
       <c r="C39" t="s">
         <v>182</v>
       </c>
+      <c r="D39" s="4">
+        <v>44217</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3617,10 +4136,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1895E69D-A26C-4278-8D8E-860ACC690BBE}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,9 +4147,10 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="126" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3640,8 +4160,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3651,8 +4174,12 @@
       <c r="C2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3662,8 +4189,12 @@
       <c r="C3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3673,8 +4204,12 @@
       <c r="C4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3684,8 +4219,12 @@
       <c r="C5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3695,8 +4234,12 @@
       <c r="C6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3706,8 +4249,12 @@
       <c r="C7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3717,8 +4264,12 @@
       <c r="C8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3728,8 +4279,12 @@
       <c r="C9" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -3739,8 +4294,12 @@
       <c r="C10" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -3750,8 +4309,12 @@
       <c r="C11" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>88</v>
       </c>
@@ -3761,8 +4324,12 @@
       <c r="C12" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -3771,6 +4338,10 @@
       </c>
       <c r="C13" t="s">
         <v>348</v>
+      </c>
+      <c r="D13" s="3">
+        <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
+        <v>44271</v>
       </c>
     </row>
   </sheetData>
@@ -3783,10 +4354,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06495654-2788-4A10-982F-A414155B7B4B}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3794,9 +4365,10 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="141.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3806,8 +4378,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -3817,8 +4392,11 @@
       <c r="C2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>112</v>
       </c>
@@ -3828,8 +4406,11 @@
       <c r="C3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>44221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3839,8 +4420,11 @@
       <c r="C4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -3850,8 +4434,11 @@
       <c r="C5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3861,8 +4448,11 @@
       <c r="C6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3872,8 +4462,11 @@
       <c r="C7" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>44248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -3883,8 +4476,11 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3894,8 +4490,11 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3905,8 +4504,11 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -3916,8 +4518,11 @@
       <c r="C11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -3927,8 +4532,11 @@
       <c r="C12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -3938,8 +4546,11 @@
       <c r="C13" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>44258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -3949,8 +4560,11 @@
       <c r="C14" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3960,8 +4574,11 @@
       <c r="C15" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>44329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3971,8 +4588,11 @@
       <c r="C16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -3982,8 +4602,11 @@
       <c r="C17" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -3993,8 +4616,11 @@
       <c r="C18" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>44386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -4004,8 +4630,11 @@
       <c r="C19" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>44393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -4015,8 +4644,11 @@
       <c r="C20" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -4026,8 +4658,11 @@
       <c r="C21" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>73</v>
       </c>
@@ -4037,8 +4672,11 @@
       <c r="C22" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -4048,8 +4686,11 @@
       <c r="C23" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>44372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -4059,8 +4700,11 @@
       <c r="C24" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>44229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -4070,8 +4714,11 @@
       <c r="C25" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>44258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -4081,8 +4728,11 @@
       <c r="C26" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>44252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>128</v>
       </c>
@@ -4092,8 +4742,11 @@
       <c r="C27" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -4103,8 +4756,11 @@
       <c r="C28" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4114,8 +4770,11 @@
       <c r="C29" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -4125,8 +4784,11 @@
       <c r="C30" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>44223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -4136,8 +4798,11 @@
       <c r="C31" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>44222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -4147,8 +4812,11 @@
       <c r="C32" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="3">
+        <v>44340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -4158,8 +4826,11 @@
       <c r="C33" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -4169,8 +4840,11 @@
       <c r="C34" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -4180,8 +4854,11 @@
       <c r="C35" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="3">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>128</v>
       </c>
@@ -4191,8 +4868,11 @@
       <c r="C36" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -4202,8 +4882,11 @@
       <c r="C37" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="3">
+        <v>44246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -4213,8 +4896,11 @@
       <c r="C38" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
+        <v>44566</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -4223,6 +4909,9 @@
       </c>
       <c r="C39" t="s">
         <v>190</v>
+      </c>
+      <c r="D39" s="3">
+        <v>44329</v>
       </c>
     </row>
   </sheetData>

--- a/hate_crime_2021/miserableData.xlsx
+++ b/hate_crime_2021/miserableData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvin\Documents\hateCrimeProject\hate_crime_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelvin\Documents\cis3920Project\hate_crime_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D77BE50-E138-44D1-8639-B570512CBC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4F1261-486B-4698-BC18-7CEE9DBF048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
+    <workbookView xWindow="19090" yWindow="-13340" windowWidth="21820" windowHeight="37900" activeTab="1" xr2:uid="{88E5D7C8-F0A7-40A7-A4FE-12C513C94A33}"/>
   </bookViews>
   <sheets>
     <sheet name="Anti LGBTQ Bills" sheetId="15" r:id="rId1"/>
@@ -1357,12 +1357,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1374,19 +1373,6 @@
   <dxfs count="16">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1410,7 +1396,20 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1492,8 +1491,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CCE40006-08C5-455F-8DA0-68DBDBDA71C8}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{12F8E506-5ABC-4DAE-8DC8-0C7595662948}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{5F1E18FE-CE08-4BA2-8CF7-A0E98590A654}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{F60CA87F-D1F0-4E3A-963C-4E0124588D3C}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{5F1E18FE-CE08-4BA2-8CF7-A0E98590A654}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F60CA87F-D1F0-4E3A-963C-4E0124588D3C}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1503,10 +1502,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F48F93A2-E90A-4031-A502-DBC196E254DA}" name="a____Religious_Freedom_Restoration_Acts__RFRAs" displayName="a____Religious_Freedom_Restoration_Acts__RFRAs" ref="A1:D39" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D39" xr:uid="{F48F93A2-E90A-4031-A502-DBC196E254DA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EA1AF20A-5CD6-48D7-BE37-2647D3B13748}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{360853BE-AEE0-4B63-BC63-C99A80B6AEB5}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{05BEA230-E3D0-48AE-BE4E-A7BF26FCFF1F}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{62EF2164-7D8B-415B-9A09-13E50E4384D1}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EA1AF20A-5CD6-48D7-BE37-2647D3B13748}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{360853BE-AEE0-4B63-BC63-C99A80B6AEB5}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{05BEA230-E3D0-48AE-BE4E-A7BF26FCFF1F}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{62EF2164-7D8B-415B-9A09-13E50E4384D1}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1516,10 +1515,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}" name="Other_Anti_LGBTQ_Bills__2" displayName="Other_Anti_LGBTQ_Bills__2" ref="A1:D13" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D13" xr:uid="{870EDE00-56AD-4E30-ABAE-A0EB95064520}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3383346D-3BFE-443C-8365-0E782E7E0C67}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{85B958ED-E918-413E-803A-8F423B00C9F0}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{64C201D8-81A3-4623-9901-BE1D7BF2388A}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{FFF29EBC-E7E4-40D2-82D9-21AEB9416F2E}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{3383346D-3BFE-443C-8365-0E782E7E0C67}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{85B958ED-E918-413E-803A-8F423B00C9F0}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{64C201D8-81A3-4623-9901-BE1D7BF2388A}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{FFF29EBC-E7E4-40D2-82D9-21AEB9416F2E}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="4">
       <calculatedColumnFormula>EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1531,8 +1530,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}" name="LGBTQ_Equality_Bills__522" displayName="LGBTQ_Equality_Bills__522" ref="A1:D39" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D39" xr:uid="{82BA0024-DB43-4817-996C-13C2E492006C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BE622ACF-A67A-4607-B36A-0CA21049E099}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{147119ED-C419-4B04-B42B-5496902E990F}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{BE622ACF-A67A-4607-B36A-0CA21049E099}" uniqueName="1" name="State" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{147119ED-C419-4B04-B42B-5496902E990F}" uniqueName="2" name="Bill Number" queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{458A07B4-90A9-4AFC-8BFB-A0A95BDD320D}" uniqueName="3" name="Status" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{D9EEB34A-937D-46C9-A618-90F9491DADFA}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="0"/>
   </tableColumns>
@@ -1839,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C823D797-831C-4828-9572-7CCBE044D14D}">
   <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:D122"/>
     </sheetView>
   </sheetViews>
@@ -1848,7 +1847,7 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="97.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,7 +1860,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>395</v>
       </c>
     </row>
@@ -1875,7 +1874,7 @@
       <c r="C2" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>44572</v>
       </c>
     </row>
@@ -1889,7 +1888,7 @@
       <c r="C3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>44572</v>
       </c>
     </row>
@@ -1903,7 +1902,7 @@
       <c r="C4" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>44322</v>
       </c>
     </row>
@@ -1917,7 +1916,7 @@
       <c r="C5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>44484</v>
       </c>
     </row>
@@ -1931,7 +1930,7 @@
       <c r="C6" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>44299</v>
       </c>
     </row>
@@ -1945,7 +1944,7 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>44229</v>
       </c>
     </row>
@@ -1959,7 +1958,7 @@
       <c r="C8" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>44316</v>
       </c>
     </row>
@@ -1973,7 +1972,7 @@
       <c r="C9" t="s">
         <v>202</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>44475</v>
       </c>
     </row>
@@ -1987,7 +1986,7 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>44243</v>
       </c>
     </row>
@@ -2001,7 +2000,7 @@
       <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>44218</v>
       </c>
     </row>
@@ -2015,7 +2014,7 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>44250</v>
       </c>
     </row>
@@ -2029,7 +2028,7 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>44230</v>
       </c>
     </row>
@@ -2043,7 +2042,7 @@
       <c r="C14" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>44288</v>
       </c>
     </row>
@@ -2057,7 +2056,7 @@
       <c r="C15" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>44288</v>
       </c>
     </row>
@@ -2071,7 +2070,7 @@
       <c r="C16" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>44298</v>
       </c>
     </row>
@@ -2085,7 +2084,7 @@
       <c r="C17" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>44298</v>
       </c>
     </row>
@@ -2099,7 +2098,7 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>44328</v>
       </c>
     </row>
@@ -2113,7 +2112,7 @@
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>44229</v>
       </c>
     </row>
@@ -2127,7 +2126,7 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>44315</v>
       </c>
     </row>
@@ -2141,7 +2140,7 @@
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>44292</v>
       </c>
     </row>
@@ -2155,7 +2154,7 @@
       <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>44488</v>
       </c>
     </row>
@@ -2169,7 +2168,7 @@
       <c r="C23" t="s">
         <v>212</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>44229</v>
       </c>
     </row>
@@ -2183,7 +2182,7 @@
       <c r="C24" t="s">
         <v>212</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>44229</v>
       </c>
     </row>
@@ -2197,7 +2196,7 @@
       <c r="C25" t="s">
         <v>301</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>44208</v>
       </c>
     </row>
@@ -2211,7 +2210,7 @@
       <c r="C26" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>44264</v>
       </c>
     </row>
@@ -2225,7 +2224,7 @@
       <c r="C27" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>44238</v>
       </c>
     </row>
@@ -2239,7 +2238,7 @@
       <c r="C28" t="s">
         <v>305</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>44561</v>
       </c>
     </row>
@@ -2253,7 +2252,7 @@
       <c r="C29" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>44328</v>
       </c>
     </row>
@@ -2267,7 +2266,7 @@
       <c r="C30" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>44314</v>
       </c>
     </row>
@@ -2281,7 +2280,7 @@
       <c r="C31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>44319</v>
       </c>
     </row>
@@ -2295,7 +2294,7 @@
       <c r="C32" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>44260</v>
       </c>
     </row>
@@ -2309,7 +2308,7 @@
       <c r="C33" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>44237</v>
       </c>
     </row>
@@ -2323,7 +2322,7 @@
       <c r="C34" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>44484</v>
       </c>
     </row>
@@ -2337,7 +2336,7 @@
       <c r="C35" t="s">
         <v>308</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>44298</v>
       </c>
     </row>
@@ -2351,7 +2350,7 @@
       <c r="C36" t="s">
         <v>225</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>44330</v>
       </c>
     </row>
@@ -2365,7 +2364,7 @@
       <c r="C37" t="s">
         <v>226</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>44307</v>
       </c>
     </row>
@@ -2379,7 +2378,7 @@
       <c r="C38" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>44333</v>
       </c>
     </row>
@@ -2393,7 +2392,7 @@
       <c r="C39" t="s">
         <v>227</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>44315</v>
       </c>
     </row>
@@ -2418,7 +2417,7 @@
       <c r="C41" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>44484</v>
       </c>
     </row>
@@ -2432,7 +2431,7 @@
       <c r="C42" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>44284</v>
       </c>
     </row>
@@ -2446,7 +2445,7 @@
       <c r="C43" t="s">
         <v>233</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>44315</v>
       </c>
     </row>
@@ -2460,7 +2459,7 @@
       <c r="C44" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>44377</v>
       </c>
     </row>
@@ -2474,7 +2473,7 @@
       <c r="C45" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>44221</v>
       </c>
     </row>
@@ -2488,7 +2487,7 @@
       <c r="C46" t="s">
         <v>236</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>44225</v>
       </c>
     </row>
@@ -2502,7 +2501,7 @@
       <c r="C47" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>44316</v>
       </c>
     </row>
@@ -2516,7 +2515,7 @@
       <c r="C48" t="s">
         <v>238</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>44316</v>
       </c>
     </row>
@@ -2530,7 +2529,7 @@
       <c r="C49" t="s">
         <v>238</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>44316</v>
       </c>
     </row>
@@ -2544,7 +2543,7 @@
       <c r="C50" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>44713</v>
       </c>
     </row>
@@ -2558,7 +2557,7 @@
       <c r="C51" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>44235</v>
       </c>
     </row>
@@ -2572,7 +2571,7 @@
       <c r="C52" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>44238</v>
       </c>
     </row>
@@ -2586,7 +2585,7 @@
       <c r="C53" t="s">
         <v>246</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>44260</v>
       </c>
     </row>
@@ -2600,7 +2599,7 @@
       <c r="C54" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>44228</v>
       </c>
     </row>
@@ -2614,7 +2613,7 @@
       <c r="C55" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>44218</v>
       </c>
     </row>
@@ -2628,7 +2627,7 @@
       <c r="C56" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>44561</v>
       </c>
     </row>
@@ -2642,7 +2641,7 @@
       <c r="C57" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>44288</v>
       </c>
     </row>
@@ -2656,7 +2655,7 @@
       <c r="C58" t="s">
         <v>104</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>44288</v>
       </c>
     </row>
@@ -2670,7 +2669,7 @@
       <c r="C59" t="s">
         <v>252</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>44298</v>
       </c>
     </row>
@@ -2684,7 +2683,7 @@
       <c r="C60" t="s">
         <v>251</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>44398</v>
       </c>
     </row>
@@ -2698,7 +2697,7 @@
       <c r="C61" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>44396</v>
       </c>
     </row>
@@ -2712,7 +2711,7 @@
       <c r="C62" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>44265</v>
       </c>
     </row>
@@ -2726,7 +2725,7 @@
       <c r="C63" t="s">
         <v>147</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>44224</v>
       </c>
     </row>
@@ -2740,7 +2739,7 @@
       <c r="C64" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>44224</v>
       </c>
     </row>
@@ -2754,7 +2753,7 @@
       <c r="C65" t="s">
         <v>257</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>44252</v>
       </c>
     </row>
@@ -2768,7 +2767,7 @@
       <c r="C66" t="s">
         <v>81</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>44245</v>
       </c>
     </row>
@@ -2782,7 +2781,7 @@
       <c r="C67" t="s">
         <v>81</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>44245</v>
       </c>
     </row>
@@ -2796,7 +2795,7 @@
       <c r="C68" t="s">
         <v>263</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>44259</v>
       </c>
     </row>
@@ -2810,7 +2809,7 @@
       <c r="C69" t="s">
         <v>265</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>44373</v>
       </c>
     </row>
@@ -2824,7 +2823,7 @@
       <c r="C70" t="s">
         <v>264</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>44531</v>
       </c>
     </row>
@@ -2838,7 +2837,7 @@
       <c r="C71" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>44266</v>
       </c>
     </row>
@@ -2852,7 +2851,7 @@
       <c r="C72" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>44323</v>
       </c>
     </row>
@@ -2866,7 +2865,7 @@
       <c r="C73" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>44313</v>
       </c>
     </row>
@@ -2880,7 +2879,7 @@
       <c r="C74" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>44483</v>
       </c>
     </row>
@@ -2894,7 +2893,7 @@
       <c r="C75" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>44266</v>
       </c>
     </row>
@@ -2908,7 +2907,7 @@
       <c r="C76" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>44245</v>
       </c>
     </row>
@@ -2922,7 +2921,7 @@
       <c r="C77" t="s">
         <v>269</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>44231</v>
       </c>
     </row>
@@ -2936,7 +2935,7 @@
       <c r="C78" t="s">
         <v>271</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>44272</v>
       </c>
     </row>
@@ -2950,7 +2949,7 @@
       <c r="C79" t="s">
         <v>270</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>44371</v>
       </c>
     </row>
@@ -2964,7 +2963,7 @@
       <c r="C80" t="s">
         <v>275</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <v>44256</v>
       </c>
     </row>
@@ -2978,7 +2977,7 @@
       <c r="C81" t="s">
         <v>274</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>44306</v>
       </c>
     </row>
@@ -2992,7 +2991,7 @@
       <c r="C82" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>44291</v>
       </c>
     </row>
@@ -3006,7 +3005,7 @@
       <c r="C83" t="s">
         <v>278</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>44236</v>
       </c>
     </row>
@@ -3020,7 +3019,7 @@
       <c r="C84" t="s">
         <v>108</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>44517</v>
       </c>
     </row>
@@ -3034,7 +3033,7 @@
       <c r="C85" t="s">
         <v>87</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>44284</v>
       </c>
     </row>
@@ -3048,7 +3047,7 @@
       <c r="C86" t="s">
         <v>311</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>44281</v>
       </c>
     </row>
@@ -3062,7 +3061,7 @@
       <c r="C87" t="s">
         <v>311</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>44281</v>
       </c>
     </row>
@@ -3076,7 +3075,7 @@
       <c r="C88" t="s">
         <v>284</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>44301</v>
       </c>
     </row>
@@ -3090,7 +3089,7 @@
       <c r="C89" t="s">
         <v>285</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <v>44264</v>
       </c>
     </row>
@@ -3104,7 +3103,7 @@
       <c r="C90" t="s">
         <v>286</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <v>44260</v>
       </c>
     </row>
@@ -3118,7 +3117,7 @@
       <c r="C91" t="s">
         <v>287</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>44277</v>
       </c>
     </row>
@@ -3132,7 +3131,7 @@
       <c r="C92" t="s">
         <v>288</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <v>44306</v>
       </c>
     </row>
@@ -3146,7 +3145,7 @@
       <c r="C93" t="s">
         <v>290</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>44284</v>
       </c>
     </row>
@@ -3160,7 +3159,7 @@
       <c r="C94" t="s">
         <v>296</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>44414</v>
       </c>
     </row>
@@ -3174,7 +3173,7 @@
       <c r="C95" t="s">
         <v>295</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>44466</v>
       </c>
     </row>
@@ -3188,7 +3187,7 @@
       <c r="C96" t="s">
         <v>294</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>44494</v>
       </c>
     </row>
@@ -3202,7 +3201,7 @@
       <c r="C97" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>44260</v>
       </c>
     </row>
@@ -3216,7 +3215,7 @@
       <c r="C98" t="s">
         <v>298</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>44240</v>
       </c>
     </row>
@@ -3230,7 +3229,7 @@
       <c r="C99" t="s">
         <v>316</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <v>44368</v>
       </c>
     </row>
@@ -3244,7 +3243,7 @@
       <c r="C100" t="s">
         <v>315</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <v>44363</v>
       </c>
     </row>
@@ -3258,7 +3257,7 @@
       <c r="C101" t="s">
         <v>316</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="2">
         <v>44368</v>
       </c>
     </row>
@@ -3272,7 +3271,7 @@
       <c r="C102" t="s">
         <v>317</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="2">
         <v>44342</v>
       </c>
     </row>
@@ -3286,7 +3285,7 @@
       <c r="C103" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="2">
         <v>44237</v>
       </c>
     </row>
@@ -3300,7 +3299,7 @@
       <c r="C104" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="2">
         <v>44250</v>
       </c>
     </row>
@@ -3314,7 +3313,7 @@
       <c r="C105" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="2">
         <v>44251</v>
       </c>
     </row>
@@ -3328,7 +3327,7 @@
       <c r="C106" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <v>44314</v>
       </c>
     </row>
@@ -3342,7 +3341,7 @@
       <c r="C107" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <v>44245</v>
       </c>
     </row>
@@ -3356,7 +3355,7 @@
       <c r="C108" t="s">
         <v>90</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="2">
         <v>44316</v>
       </c>
     </row>
@@ -3370,7 +3369,7 @@
       <c r="C109" t="s">
         <v>92</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="2">
         <v>44232</v>
       </c>
     </row>
@@ -3384,7 +3383,7 @@
       <c r="C110" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="2">
         <v>44537</v>
       </c>
     </row>
@@ -3398,7 +3397,7 @@
       <c r="C111" t="s">
         <v>264</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="2">
         <v>44531</v>
       </c>
     </row>
@@ -3412,7 +3411,7 @@
       <c r="C112" t="s">
         <v>264</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="2">
         <v>44531</v>
       </c>
     </row>
@@ -3426,7 +3425,7 @@
       <c r="C113" t="s">
         <v>96</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="2">
         <v>44599</v>
       </c>
     </row>
@@ -3440,7 +3439,7 @@
       <c r="C114" t="s">
         <v>98</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="2">
         <v>44536</v>
       </c>
     </row>
@@ -3454,7 +3453,7 @@
       <c r="C115" t="s">
         <v>100</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="2">
         <v>44484</v>
       </c>
     </row>
@@ -3468,7 +3467,7 @@
       <c r="C116" t="s">
         <v>102</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="2">
         <v>44230</v>
       </c>
     </row>
@@ -3482,7 +3481,7 @@
       <c r="C117" t="s">
         <v>329</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="2">
         <v>44243</v>
       </c>
     </row>
@@ -3496,7 +3495,7 @@
       <c r="C118" t="s">
         <v>331</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="2">
         <v>44223</v>
       </c>
     </row>
@@ -3510,7 +3509,7 @@
       <c r="C119" t="s">
         <v>330</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D119" s="2">
         <v>44229</v>
       </c>
     </row>
@@ -3524,7 +3523,7 @@
       <c r="C120" t="s">
         <v>104</v>
       </c>
-      <c r="D120" s="3">
+      <c r="D120" s="2">
         <v>44288</v>
       </c>
     </row>
@@ -3538,7 +3537,7 @@
       <c r="C121" t="s">
         <v>106</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D121" s="2">
         <v>44217</v>
       </c>
     </row>
@@ -3552,7 +3551,7 @@
       <c r="C122" t="s">
         <v>108</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D122" s="2">
         <v>44517</v>
       </c>
     </row>
@@ -3569,14 +3568,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B2B72-99ED-4BED-84A3-4A14F8520817}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="123.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3603,7 +3604,7 @@
       <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>44484</v>
       </c>
     </row>
@@ -3617,7 +3618,7 @@
       <c r="C3" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>44316</v>
       </c>
     </row>
@@ -3631,7 +3632,7 @@
       <c r="C4" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>44218</v>
       </c>
     </row>
@@ -3645,7 +3646,7 @@
       <c r="C5" t="s">
         <v>388</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>44257</v>
       </c>
     </row>
@@ -3659,7 +3660,7 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>44250</v>
       </c>
     </row>
@@ -3673,7 +3674,7 @@
       <c r="C7" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>44308</v>
       </c>
     </row>
@@ -3687,7 +3688,7 @@
       <c r="C8" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>44341</v>
       </c>
     </row>
@@ -3701,7 +3702,7 @@
       <c r="C9" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>44265</v>
       </c>
     </row>
@@ -3715,7 +3716,7 @@
       <c r="C10" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>44243</v>
       </c>
     </row>
@@ -3729,7 +3730,7 @@
       <c r="C11" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>44263</v>
       </c>
     </row>
@@ -3743,7 +3744,7 @@
       <c r="C12" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>44284</v>
       </c>
     </row>
@@ -3757,7 +3758,7 @@
       <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>44288</v>
       </c>
     </row>
@@ -3771,7 +3772,7 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>44315</v>
       </c>
     </row>
@@ -3785,7 +3786,7 @@
       <c r="C15" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>44292</v>
       </c>
     </row>
@@ -3799,7 +3800,7 @@
       <c r="C16" t="s">
         <v>166</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>44228</v>
       </c>
     </row>
@@ -3813,7 +3814,7 @@
       <c r="C17" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>44208</v>
       </c>
     </row>
@@ -3827,7 +3828,7 @@
       <c r="C18" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>44251</v>
       </c>
     </row>
@@ -3841,7 +3842,7 @@
       <c r="C19" t="s">
         <v>393</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>44329</v>
       </c>
     </row>
@@ -3855,7 +3856,7 @@
       <c r="C20" t="s">
         <v>394</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>44279</v>
       </c>
     </row>
@@ -3869,7 +3870,7 @@
       <c r="C21" t="s">
         <v>392</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>44384</v>
       </c>
     </row>
@@ -3883,7 +3884,7 @@
       <c r="C22" t="s">
         <v>160</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>44284</v>
       </c>
     </row>
@@ -3897,7 +3898,7 @@
       <c r="C23" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>44288</v>
       </c>
     </row>
@@ -3911,7 +3912,7 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>44315</v>
       </c>
     </row>
@@ -3925,7 +3926,7 @@
       <c r="C25" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>44292</v>
       </c>
     </row>
@@ -3939,7 +3940,7 @@
       <c r="C26" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>44228</v>
       </c>
     </row>
@@ -3953,7 +3954,7 @@
       <c r="C27" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>44208</v>
       </c>
     </row>
@@ -3967,7 +3968,7 @@
       <c r="C28" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>44251</v>
       </c>
     </row>
@@ -3981,7 +3982,7 @@
       <c r="C29" t="s">
         <v>393</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>44329</v>
       </c>
     </row>
@@ -3995,7 +3996,7 @@
       <c r="C30" t="s">
         <v>394</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>44279</v>
       </c>
     </row>
@@ -4009,7 +4010,7 @@
       <c r="C31" t="s">
         <v>392</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>44384</v>
       </c>
     </row>
@@ -4023,7 +4024,7 @@
       <c r="C32" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>44218</v>
       </c>
     </row>
@@ -4037,7 +4038,7 @@
       <c r="C33" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>44288</v>
       </c>
     </row>
@@ -4051,7 +4052,7 @@
       <c r="C34" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>44238</v>
       </c>
     </row>
@@ -4065,7 +4066,7 @@
       <c r="C35" t="s">
         <v>177</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>44237</v>
       </c>
     </row>
@@ -4079,7 +4080,7 @@
       <c r="C36" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>44231</v>
       </c>
     </row>
@@ -4093,7 +4094,7 @@
       <c r="C37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>44218</v>
       </c>
     </row>
@@ -4107,7 +4108,7 @@
       <c r="C38" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>44284</v>
       </c>
     </row>
@@ -4121,7 +4122,7 @@
       <c r="C39" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>44217</v>
       </c>
     </row>
@@ -4174,7 +4175,7 @@
       <c r="C2" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44287</v>
       </c>
@@ -4189,7 +4190,7 @@
       <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44249</v>
       </c>
@@ -4204,7 +4205,7 @@
       <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44207</v>
       </c>
@@ -4219,7 +4220,7 @@
       <c r="C5" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44259</v>
       </c>
@@ -4234,7 +4235,7 @@
       <c r="C6" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44531</v>
       </c>
@@ -4249,7 +4250,7 @@
       <c r="C7" t="s">
         <v>212</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44229</v>
       </c>
@@ -4264,7 +4265,7 @@
       <c r="C8" t="s">
         <v>338</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44240</v>
       </c>
@@ -4279,7 +4280,7 @@
       <c r="C9" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44249</v>
       </c>
@@ -4294,7 +4295,7 @@
       <c r="C10" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44319</v>
       </c>
@@ -4309,7 +4310,7 @@
       <c r="C11" t="s">
         <v>344</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44300</v>
       </c>
@@ -4324,7 +4325,7 @@
       <c r="C12" t="s">
         <v>347</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44271</v>
       </c>
@@ -4339,7 +4340,7 @@
       <c r="C13" t="s">
         <v>348</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f ca="1">EDATE(Other_Anti_LGBTQ_Bills__2[[#This Row],[Date]],0)</f>
         <v>44271</v>
       </c>
@@ -4365,7 +4366,7 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="141.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -4392,7 +4393,7 @@
       <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>44321</v>
       </c>
     </row>
@@ -4406,7 +4407,7 @@
       <c r="C3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>44221</v>
       </c>
     </row>
@@ -4420,7 +4421,7 @@
       <c r="C4" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>44288</v>
       </c>
     </row>
@@ -4434,7 +4435,7 @@
       <c r="C5" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>44288</v>
       </c>
     </row>
@@ -4448,7 +4449,7 @@
       <c r="C6" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>44228</v>
       </c>
     </row>
@@ -4462,7 +4463,7 @@
       <c r="C7" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>44248</v>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>44229</v>
       </c>
     </row>
@@ -4490,7 +4491,7 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>44229</v>
       </c>
     </row>
@@ -4504,7 +4505,7 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>44229</v>
       </c>
     </row>
@@ -4518,7 +4519,7 @@
       <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>44253</v>
       </c>
     </row>
@@ -4532,7 +4533,7 @@
       <c r="C12" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>44208</v>
       </c>
     </row>
@@ -4546,7 +4547,7 @@
       <c r="C13" t="s">
         <v>358</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>44258</v>
       </c>
     </row>
@@ -4560,7 +4561,7 @@
       <c r="C14" t="s">
         <v>360</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>44252</v>
       </c>
     </row>
@@ -4574,7 +4575,7 @@
       <c r="C15" t="s">
         <v>359</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>44329</v>
       </c>
     </row>
@@ -4588,7 +4589,7 @@
       <c r="C16" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>44215</v>
       </c>
     </row>
@@ -4602,7 +4603,7 @@
       <c r="C17" t="s">
         <v>364</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>44456</v>
       </c>
     </row>
@@ -4616,7 +4617,7 @@
       <c r="C18" t="s">
         <v>366</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>44386</v>
       </c>
     </row>
@@ -4630,7 +4631,7 @@
       <c r="C19" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>44393</v>
       </c>
     </row>
@@ -4644,7 +4645,7 @@
       <c r="C20" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>44284</v>
       </c>
     </row>
@@ -4658,7 +4659,7 @@
       <c r="C21" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>44468</v>
       </c>
     </row>
@@ -4672,7 +4673,7 @@
       <c r="C22" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>44293</v>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       <c r="C23" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>44372</v>
       </c>
     </row>
@@ -4700,7 +4701,7 @@
       <c r="C24" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>44229</v>
       </c>
     </row>
@@ -4714,7 +4715,7 @@
       <c r="C25" t="s">
         <v>358</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>44258</v>
       </c>
     </row>
@@ -4728,7 +4729,7 @@
       <c r="C26" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>44252</v>
       </c>
     </row>
@@ -4742,7 +4743,7 @@
       <c r="C27" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>44451</v>
       </c>
     </row>
@@ -4756,7 +4757,7 @@
       <c r="C28" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>44224</v>
       </c>
     </row>
@@ -4770,7 +4771,7 @@
       <c r="C29" t="s">
         <v>373</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>44202</v>
       </c>
     </row>
@@ -4784,7 +4785,7 @@
       <c r="C30" t="s">
         <v>374</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>44223</v>
       </c>
     </row>
@@ -4798,7 +4799,7 @@
       <c r="C31" t="s">
         <v>372</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>44222</v>
       </c>
     </row>
@@ -4812,7 +4813,7 @@
       <c r="C32" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>44340</v>
       </c>
     </row>
@@ -4826,7 +4827,7 @@
       <c r="C33" t="s">
         <v>382</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>44448</v>
       </c>
     </row>
@@ -4840,7 +4841,7 @@
       <c r="C34" t="s">
         <v>380</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>44455</v>
       </c>
     </row>
@@ -4854,7 +4855,7 @@
       <c r="C35" t="s">
         <v>379</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>44291</v>
       </c>
     </row>
@@ -4868,7 +4869,7 @@
       <c r="C36" t="s">
         <v>378</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>44336</v>
       </c>
     </row>
@@ -4882,7 +4883,7 @@
       <c r="C37" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>44246</v>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       <c r="C38" t="s">
         <v>188</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>44566</v>
       </c>
     </row>
@@ -4910,7 +4911,7 @@
       <c r="C39" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>44329</v>
       </c>
     </row>
